--- a/biology/Botanique/Selenicereus_grandiflorus/Selenicereus_grandiflorus.xlsx
+++ b/biology/Botanique/Selenicereus_grandiflorus/Selenicereus_grandiflorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selenicereus grandiflorus est une espèce de cactus du genre Selenicereus originaire des Antilles, du Mexique et d'Amérique centrale qui est appelé communément cactus vanille, ou reine de la nuit[4]. Lorsque Carl von Linné le décrivit en 1753, c'était le cactus le plus grand de son époque[5]. Depuis d'autres espèces de Selenicereus plus grandes ont été décrites.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selenicereus grandiflorus est une espèce de cactus du genre Selenicereus originaire des Antilles, du Mexique et d'Amérique centrale qui est appelé communément cactus vanille, ou reine de la nuit. Lorsque Carl von Linné le décrivit en 1753, c'était le cactus le plus grand de son époque. Depuis d'autres espèces de Selenicereus plus grandes ont été décrites.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cactus grimpant possède de longues tiges jusqu'à 5 mètres de longueur[6] d'un diamètre de 1 à 2,5 cm avec au moins sept côtes. Ses fleurs jaunâtres ont la particularité de ne fleurir qu'une nuit à la fin du printemps ou au début de l'été et blanchissent au fil des heures. Elles mesurent entre 17 et 22,5 cm de longueur dégageant une odeur ressemblant à celle de la vanille.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cactus grimpant possède de longues tiges jusqu'à 5 mètres de longueur d'un diamètre de 1 à 2,5 cm avec au moins sept côtes. Ses fleurs jaunâtres ont la particularité de ne fleurir qu'une nuit à la fin du printemps ou au début de l'été et blanchissent au fil des heures. Elles mesurent entre 17 et 22,5 cm de longueur dégageant une odeur ressemblant à celle de la vanille.
 Ses fruits de forme ovale vont du rose au magenta et mesurent huit centimètres de longueur.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cactus ne supporte pas les températures en dessous de 5 °C. Cette plante épiphyte a besoin d'un compost contenant suffisamment d'humus dont l'humidité est maintenue en été. Il préfère le soleil. En Europe, des spécimens sont présentés au public au jardin botanique de Saint-Pétersbourg et à celui de Belgique (Jardin botanique de Meise).
 </t>
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selenicereus grandiflorus subsp. grandiflorus
 Selenicereus grandiflorus subsp. lautneri Ralf Bauer</t>
@@ -605,9 +623,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cereus jalapaensis Vaupel (1913)[5], Cereus paradisiacus Vaupel (1913)[6], Cereus roseanus Vaupel (1913)[7], Cereus hallensis Weing. ex Borg (1937, nom. inval. ICBN-Article 32.1c) et Cereus hallensis Weing. ex Borg (1951, nom. inval. ICBN-Article 36.1).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cereus jalapaensis Vaupel (1913), Cereus paradisiacus Vaupel (1913), Cereus roseanus Vaupel (1913), Cereus hallensis Weing. ex Borg (1937, nom. inval. ICBN-Article 32.1c) et Cereus hallensis Weing. ex Borg (1951, nom. inval. ICBN-Article 36.1).
 </t>
         </is>
       </c>
@@ -636,23 +656,25 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (15 mars 2019)[7] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 mars 2019) :
 sous-espèce Selenicereus grandiflorus subsp. donkelaarii
 sous-espèce Selenicereus grandiflorus subsp. grandiflorus
 sous-espèce Selenicereus grandiflorus subsp. hondurensis
 sous-espèce Selenicereus grandiflorus subsp. lautneri
-Selon NCBI  (15 mars 2019)[8] :
+Selon NCBI  (15 mars 2019) :
 sous-espèce Selenicereus grandiflorus subsp. grandiflorus Selenicereus grandiflorus ssp. grandiflorus
 sous-espèce Selenicereus grandiflorus subsp. hondurensis (K.Schum. ex Weing.) Ralf Bauer, 2003
 sous-espèce Selenicereus grandiflorus subsp. lautneri Ralf Bauer, 2003
-Selon The Plant List            (15 mars 2019)[1] :
+Selon The Plant List            (15 mars 2019) :
 variété Selenicereus grandiflorus var. affinis (Salm-Dyck) Borg
 variété Selenicereus grandiflorus var. irradians (Lem.) Borg
 variété Selenicereus grandiflorus var. ophites (Lem.) Borg
 variété Selenicereus grandiflorus var. uranus (Riccob.) Borg
-Selon Tropicos                                           (15 mars 2019)[9] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Selenicereus grandiflorus subsp. donkelaarii (Salm-Dyck) Ralf Bauer
 sous-espèce Selenicereus grandiflorus subsp. grandiflorus
 sous-espèce Selenicereus grandiflorus subsp. hondurensis (K. Schum. ex Weing.) Ralf Bauer
